--- a/TimeCompare.xlsx
+++ b/TimeCompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Parallel Computing\Assigment\AprioriRules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7603B1-38B0-4B5E-92D4-1151CB31C24B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F212862-FD17-4581-AA7F-8C1783A22ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Size</t>
   </si>
@@ -54,22 +54,16 @@
     <t>1.91MB</t>
   </si>
   <si>
-    <t>S/P = Speedup</t>
-  </si>
-  <si>
-    <t>Sequence(ms)</t>
-  </si>
-  <si>
-    <t>Parallel(ms)</t>
-  </si>
-  <si>
     <t>19.10MB</t>
   </si>
   <si>
-    <t>CPU Cores</t>
-  </si>
-  <si>
-    <t>GPU Threads</t>
+    <t>CPU CORES</t>
+  </si>
+  <si>
+    <t>GPU THREADS</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
 </sst>
 </file>
@@ -101,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,23 +103,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +421,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,8 +429,7 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="5" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
@@ -426,436 +437,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>100</v>
-      </c>
-      <c r="H2" s="4">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1198</v>
-      </c>
-      <c r="J2" s="5">
-        <f>H2/I2</f>
-        <v>3.3388981636060101E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C4" s="3">
         <v>1000</v>
       </c>
-      <c r="H3" s="4">
-        <v>138144</v>
-      </c>
-      <c r="I3" s="4">
-        <v>38028</v>
-      </c>
-      <c r="J3" s="5">
-        <f>H3/I3</f>
-        <v>3.6326917008520039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1000</v>
-      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>200</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>400</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
